--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project_development\altium\my_esc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd\Documents\GitHub\sophum_esc\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="145">
   <si>
     <t>Comment</t>
   </si>
@@ -54,200 +55,316 @@
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>贴片MOSFET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDS6675BZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0603</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P-MOSFET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMN3016lss-13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-MOSFET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIODES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP32</t>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F051K8T6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>贴片BJT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NPN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BC817-25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANJIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>集成电路</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L78L33ABUTR</t>
-  </si>
-  <si>
-    <t>SOT89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L78L33ABUTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED0603</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVERLIGHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>YAGEO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C0805</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1uF(104) +-10% 50V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0805KKX7R8BB105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1uF(105) +-10% 25V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0R +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-070RL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100R +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0805</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0805</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100R +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-07100RL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12K +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-0712KL</t>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONSEMI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求/最低采购量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创现货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>PCB Footprint</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>BC847BTT1G</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>SC75</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>EFM8BB10F8G</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>LP2985AIM5-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>PMCPB5530X</t>
+  </si>
+  <si>
+    <t>FET1</t>
+  </si>
+  <si>
+    <t>DFN2020-6</t>
+  </si>
+  <si>
+    <t>FET3</t>
+  </si>
+  <si>
+    <t>FET2</t>
+  </si>
+  <si>
+    <t>TEST_POINT</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>SR3R00X3R00</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>R0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1K(1001) +-1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-071KL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2K(2201)+-1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-072K2L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K(1002)+-1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100R(1000)+-1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -255,118 +372,153 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1K +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2K +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0603FR-072KL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33K +-1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0805</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-0733KL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONSEMI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BHC-ZL1M2RY/3T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0805FR-07100RL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求/最低采购量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>C0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10nF(103) +-10% 50V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22uF(226) +-20% 6.3V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0603MRX5R5BB226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nF(104) +-10% 16V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX5R7BB104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC847BTT1G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP2985AIM5-3.3/NOPB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP2985</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEXPERIA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMCPB5530X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN2020-6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN2020-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创代购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER-4X1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDR4X1-2R54-TM-VM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接插件</t>
+  </si>
+  <si>
+    <t>HDR4X1</t>
+  </si>
+  <si>
+    <t>HDR4X1-2R54-TM-VM</t>
+  </si>
+  <si>
+    <t>C124378</t>
+  </si>
+  <si>
+    <t>CKMTW</t>
   </si>
   <si>
     <t>立创现货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯样现货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片LED</t>
-  </si>
-  <si>
-    <t>贴片电阻</t>
+  </si>
+  <si>
+    <t>2/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFM8BB10F8G-A-QFN20R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFM8BB10F8G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN20-0R50-3X3EP1R80X1R80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN20-0R50-3X3EP1R80X1R80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILICON LABS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +566,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +668,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
@@ -834,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -849,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
@@ -860,31 +1043,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.02</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
@@ -892,63 +1075,63 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.04</v>
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.39</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
@@ -956,415 +1139,281 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.62</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.02</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.57999999999999996</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.57999999999999996</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>135</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="H9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.02</v>
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
+      <c r="A11" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.57999999999999996</v>
+        <v>1.46</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>82</v>
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>123</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>4.3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="H13" s="2">
-        <v>3.47</v>
-      </c>
-      <c r="I13" s="2">
-        <v>27.76</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10.48</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3.52</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2">
-        <v>21.74</v>
-      </c>
-      <c r="I17" s="2">
-        <v>49.61</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>88</v>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1372,4 +1421,498 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>